--- a/docs/Test Plan.xlsx
+++ b/docs/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\Desktop\CSU-Senior-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086888E-BC6A-4841-81C4-B4DAFC20B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7ECB83-07DB-4C4C-B965-7897718E8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21495" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{3312F96C-3057-4E31-86FE-D1E610F56208}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3312F96C-3057-4E31-86FE-D1E610F56208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Greater than 50% of individuals feel emotionally impacted at some point during the story.</t>
+  </si>
+  <si>
+    <t>Game Theory</t>
+  </si>
+  <si>
+    <t>Graph the choice distribution using my games functions</t>
+  </si>
+  <si>
+    <t>Even distribution for my base function.</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +481,9 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -497,7 +508,9 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -524,6 +537,9 @@
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -547,8 +563,11 @@
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -569,6 +588,9 @@
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
